--- a/AVGO.xlsx
+++ b/AVGO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B6D328-E4EB-44B6-B7E0-87C255682337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D78B31C-CAEF-4A8A-B560-382CA715EE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{70329CC5-8756-4BA4-A5C1-E709DAADAB52}"/>
+    <workbookView xWindow="4950" yWindow="3670" windowWidth="18690" windowHeight="15380" activeTab="1" xr2:uid="{70329CC5-8756-4BA4-A5C1-E709DAADAB52}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>Price</t>
   </si>
@@ -57,9 +57,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q423</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Net Income</t>
   </si>
   <si>
-    <t>Q123</t>
-  </si>
-  <si>
     <t>AR</t>
   </si>
   <si>
@@ -274,12 +268,48 @@
   </si>
   <si>
     <t>WT Microelectronics - 21% of revenue FY2023</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>FQ324</t>
+  </si>
+  <si>
+    <t>FQ424</t>
+  </si>
+  <si>
+    <t>FQ125</t>
+  </si>
+  <si>
+    <t>FQ225</t>
+  </si>
+  <si>
+    <t>FQ325</t>
+  </si>
+  <si>
+    <t>FQ425</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>FY2020</t>
+  </si>
+  <si>
+    <t>FY2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -323,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -345,20 +375,17 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -385,16 +412,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>32524</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9292</xdr:rowOff>
+      <xdr:rowOff>13260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>32524</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>134744</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>138712</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -409,8 +436,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4618463" y="9292"/>
-          <a:ext cx="0" cy="10370635"/>
+          <a:off x="6287275" y="13260"/>
+          <a:ext cx="0" cy="10634702"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -435,15 +462,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>32523</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>32523</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>125452</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -805,47 +832,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9849E712-1B47-42A3-A902-777D3000824F}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+        <v>176.75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>4800</v>
+        <v>4670.5760829999999</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="5">
         <f>+J2*J3</f>
-        <v>748800</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+        <v>825524.32267024997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
         <v>3</v>
@@ -854,12 +883,12 @@
         <v>11864</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
@@ -868,70 +897,70 @@
         <v>73468</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>810404</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+        <v>887128.32267024997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="I14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
         <v>63</v>
       </c>
-      <c r="I14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -941,105 +970,157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470E0775-30FD-4D74-BE40-C6F63DB74CF0}">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.140625" style="3"/>
-    <col min="14" max="14" width="9.140625" style="3"/>
-    <col min="15" max="16" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="8.26953125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="3"/>
+    <col min="17" max="19" width="8.7265625" style="3"/>
+    <col min="20" max="20" width="9.1796875" style="3"/>
+    <col min="21" max="22" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="7">
+    </row>
+    <row r="3" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="14">
         <v>44864</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="14">
         <v>44955</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="14">
         <v>45046</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="14">
         <v>45137</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="14">
         <v>45228</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="14">
         <v>45326</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="14">
         <v>45417</v>
       </c>
-      <c r="O3" s="7">
+      <c r="J3" s="14">
+        <v>45508</v>
+      </c>
+      <c r="K3" s="14">
+        <f>+G3+365</f>
+        <v>45593</v>
+      </c>
+      <c r="L3" s="14">
+        <f>+H3+365</f>
+        <v>45691</v>
+      </c>
+      <c r="M3" s="14">
+        <f>+I3+365</f>
+        <v>45782</v>
+      </c>
+      <c r="N3" s="14">
+        <f>+J3+365</f>
+        <v>45873</v>
+      </c>
+      <c r="O3" s="14">
+        <f>+K3+365</f>
+        <v>45958</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14">
         <v>44864</v>
       </c>
-      <c r="P3" s="7">
+      <c r="V3" s="14">
         <v>45228</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1047,1088 +1128,1686 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8">
+        <v>6941</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="N5" s="11">
-        <v>20886</v>
-      </c>
-      <c r="O5" s="11">
-        <v>26277</v>
-      </c>
-      <c r="P5" s="11">
-        <v>27891</v>
-      </c>
-      <c r="Q5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J5" s="8">
+        <v>7274</v>
+      </c>
+      <c r="K5" s="8">
+        <f>+J5+100</f>
+        <v>7374</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="8">
+        <v>1935</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="N6" s="11">
+      <c r="J6" s="8">
+        <v>5798</v>
+      </c>
+      <c r="K6" s="8">
+        <f>+J6+100</f>
+        <v>5898</v>
+      </c>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8">
+        <v>7439</v>
+      </c>
+      <c r="K7" s="8">
+        <f>+J7+500</f>
+        <v>7939</v>
+      </c>
+      <c r="T7" s="8">
+        <v>20886</v>
+      </c>
+      <c r="U7" s="8">
+        <v>26277</v>
+      </c>
+      <c r="V7" s="8">
+        <v>27891</v>
+      </c>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8">
+        <v>5633</v>
+      </c>
+      <c r="K8" s="8">
+        <f>+J8+500</f>
+        <v>6133</v>
+      </c>
+      <c r="T8" s="8">
         <v>6564</v>
       </c>
-      <c r="O6" s="11">
+      <c r="U8" s="8">
         <v>6926</v>
       </c>
-      <c r="P6" s="11">
+      <c r="V8" s="8">
         <v>7928</v>
       </c>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" spans="1:24" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
         <v>8930</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D9" s="10">
         <v>8915</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E9" s="10">
         <v>8733</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F9" s="10">
         <v>8876</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G9" s="10">
         <v>9295</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H9" s="10">
         <v>11961</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I9" s="10">
         <v>12487</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="N7" s="10">
-        <f>+N5+N6</f>
+      <c r="J9" s="10">
+        <f>+J7+J8</f>
+        <v>13072</v>
+      </c>
+      <c r="K9" s="10">
+        <f>+K7+K8</f>
+        <v>14072</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="10">
+        <f>+T7+T8</f>
         <v>27450</v>
       </c>
-      <c r="O7" s="10">
-        <f>+O5+O6</f>
+      <c r="U9" s="10">
+        <f>+U7+U8</f>
         <v>33203</v>
       </c>
-      <c r="P7" s="10">
-        <f>SUM(D7:G7)</f>
+      <c r="V9" s="10">
+        <f>SUM(D9:G9)</f>
         <v>35819</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="W9" s="10">
         <v>45000</v>
       </c>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="X9" s="12"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2298</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2374</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2177</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2272</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2449</v>
+      </c>
+      <c r="H10" s="8">
+        <v>3114</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3142</v>
+      </c>
+      <c r="J10" s="8">
+        <f>2434+699</f>
+        <v>3133</v>
+      </c>
+      <c r="K10" s="8">
+        <f>+K9-K11</f>
+        <v>3377.2800000000007</v>
+      </c>
+      <c r="T10" s="8">
+        <v>6555</v>
+      </c>
+      <c r="U10" s="8">
+        <v>7629</v>
+      </c>
+      <c r="V10" s="8">
+        <f>SUM(D10:G10)</f>
+        <v>9272</v>
+      </c>
+      <c r="W10" s="8">
+        <f>+W9*0.25</f>
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11">
-        <v>2298</v>
-      </c>
-      <c r="D8" s="11">
-        <v>2374</v>
-      </c>
-      <c r="E8" s="11">
-        <v>2177</v>
-      </c>
-      <c r="F8" s="11">
-        <v>2272</v>
-      </c>
-      <c r="G8" s="11">
-        <v>2449</v>
-      </c>
-      <c r="H8" s="11">
-        <v>3114</v>
-      </c>
-      <c r="I8" s="11">
-        <v>3142</v>
-      </c>
-      <c r="N8" s="8">
-        <v>6555</v>
-      </c>
-      <c r="O8" s="8">
-        <v>7629</v>
-      </c>
-      <c r="P8" s="11">
-        <f>SUM(D8:G8)</f>
-        <v>9272</v>
-      </c>
-      <c r="Q8" s="11">
-        <f>+Q7*0.25</f>
-        <v>11250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="11">
-        <f>+C7-C8</f>
+      <c r="C11" s="8">
+        <f t="shared" ref="C11:J11" si="0">+C9-C10</f>
         <v>6632</v>
       </c>
-      <c r="D9" s="11">
-        <f>+D7-D8</f>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
         <v>6541</v>
       </c>
-      <c r="E9" s="11">
-        <f>+E7-E8</f>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
         <v>6556</v>
       </c>
-      <c r="F9" s="11">
-        <f>+F7-F8</f>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
         <v>6604</v>
       </c>
-      <c r="G9" s="11">
-        <f>+G7-G8</f>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
         <v>6846</v>
       </c>
-      <c r="H9" s="11">
-        <f>+H7-H8</f>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
         <v>8847</v>
       </c>
-      <c r="I9" s="11">
-        <f>+I7-I8</f>
+      <c r="I11" s="8">
+        <f t="shared" si="0"/>
         <v>9345</v>
       </c>
-      <c r="N9" s="8">
-        <f>+N7-N8</f>
+      <c r="J11" s="8">
+        <f t="shared" si="0"/>
+        <v>9939</v>
+      </c>
+      <c r="K11" s="8">
+        <f>+K9*0.76</f>
+        <v>10694.72</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8">
+        <f>+T9-T10</f>
         <v>20895</v>
       </c>
-      <c r="O9" s="8">
-        <f>+O7-O8</f>
+      <c r="U11" s="8">
+        <f>+U9-U10</f>
         <v>25574</v>
       </c>
-      <c r="P9" s="8">
-        <f>+P7-P8</f>
+      <c r="V11" s="8">
+        <f>+V9-V10</f>
         <v>26547</v>
       </c>
-      <c r="Q9" s="8">
-        <f>+Q7-Q8</f>
+      <c r="W11" s="8">
+        <f>+W9-W10</f>
         <v>33750</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="X11" s="8"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1197</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1195</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1312</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1358</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1388</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2308</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2415</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2353</v>
+      </c>
+      <c r="K12" s="8">
+        <f>+H12</f>
+        <v>2308</v>
+      </c>
+      <c r="T12" s="8">
+        <v>4854</v>
+      </c>
+      <c r="U12" s="8">
+        <v>4919</v>
+      </c>
+      <c r="V12" s="8">
+        <f>SUM(D12:G12)</f>
+        <v>5253</v>
+      </c>
+      <c r="W12" s="8">
+        <f>+V12*1.1</f>
+        <v>5778.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="11">
-        <v>1197</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1195</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1312</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1358</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1388</v>
-      </c>
-      <c r="H10" s="11">
-        <v>2308</v>
-      </c>
-      <c r="I10" s="11">
-        <v>2415</v>
-      </c>
-      <c r="N10" s="8">
-        <v>4854</v>
-      </c>
-      <c r="O10" s="8">
-        <v>4919</v>
-      </c>
-      <c r="P10" s="11">
-        <f>SUM(D10:G10)</f>
-        <v>5253</v>
-      </c>
-      <c r="Q10" s="11">
-        <f>+P10*1.1</f>
-        <v>5778.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="C13" s="8">
+        <v>370</v>
+      </c>
+      <c r="D13" s="8">
+        <v>348</v>
+      </c>
+      <c r="E13" s="8">
+        <v>438</v>
+      </c>
+      <c r="F13" s="8">
+        <v>388</v>
+      </c>
+      <c r="G13" s="8">
+        <v>418</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1572</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1277</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1100</v>
+      </c>
+      <c r="K13" s="8">
+        <f>+H13</f>
+        <v>1572</v>
+      </c>
+      <c r="T13" s="8">
+        <v>1347</v>
+      </c>
+      <c r="U13" s="8">
+        <v>1382</v>
+      </c>
+      <c r="V13" s="8">
+        <f>SUM(D13:G13)</f>
+        <v>1592</v>
+      </c>
+      <c r="W13" s="8">
+        <f>+V13*1.1</f>
+        <v>1751.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="11">
-        <v>370</v>
-      </c>
-      <c r="D11" s="11">
-        <v>348</v>
-      </c>
-      <c r="E11" s="11">
-        <v>438</v>
-      </c>
-      <c r="F11" s="11">
-        <v>388</v>
-      </c>
-      <c r="G11" s="11">
-        <v>418</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1572</v>
-      </c>
-      <c r="I11" s="11">
-        <v>1277</v>
-      </c>
-      <c r="N11" s="8">
-        <v>1347</v>
-      </c>
-      <c r="O11" s="8">
-        <v>1382</v>
-      </c>
-      <c r="P11" s="11">
-        <f>SUM(D11:G11)</f>
-        <v>1592</v>
-      </c>
-      <c r="Q11" s="11">
-        <f>+P11*1.1</f>
-        <v>1751.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="8">
-        <f>+C10+C11</f>
+      <c r="C14" s="8">
+        <f t="shared" ref="C14:K14" si="1">+C12+C13</f>
         <v>1567</v>
       </c>
-      <c r="D12" s="8">
-        <f>+D10+D11</f>
+      <c r="D14" s="8">
+        <f t="shared" si="1"/>
         <v>1543</v>
       </c>
-      <c r="E12" s="8">
-        <f>+E10+E11</f>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
         <v>1750</v>
       </c>
-      <c r="F12" s="8">
-        <f>+F10+F11</f>
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
         <v>1746</v>
       </c>
-      <c r="G12" s="8">
-        <f>+G10+G11</f>
+      <c r="G14" s="8">
+        <f t="shared" si="1"/>
         <v>1806</v>
       </c>
-      <c r="H12" s="8">
-        <f>+H10+H11</f>
+      <c r="H14" s="8">
+        <f t="shared" si="1"/>
         <v>3880</v>
       </c>
-      <c r="I12" s="8">
-        <f>+I10+I11</f>
+      <c r="I14" s="8">
+        <f t="shared" si="1"/>
         <v>3692</v>
       </c>
-      <c r="N12" s="11">
-        <f t="shared" ref="N12:O12" si="0">+N11+N10</f>
+      <c r="J14" s="8">
+        <f t="shared" si="1"/>
+        <v>3453</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="1"/>
+        <v>3880</v>
+      </c>
+      <c r="T14" s="8">
+        <f t="shared" ref="T14:U14" si="2">+T13+T12</f>
         <v>6201</v>
       </c>
-      <c r="O12" s="11">
-        <f t="shared" si="0"/>
+      <c r="U14" s="8">
+        <f t="shared" si="2"/>
         <v>6301</v>
       </c>
-      <c r="P12" s="11">
-        <f>+P11+P10</f>
+      <c r="V14" s="8">
+        <f>+V13+V12</f>
         <v>6845</v>
       </c>
-      <c r="Q12" s="11">
-        <f>+Q11+Q10</f>
+      <c r="W14" s="8">
+        <f>+W13+W12</f>
         <v>7529.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="11">
-        <f>+C9-C12</f>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" ref="C15:K15" si="3">+C11-C14</f>
         <v>5065</v>
       </c>
-      <c r="D13" s="11">
-        <f>+D9-D12</f>
+      <c r="D15" s="8">
+        <f t="shared" si="3"/>
         <v>4998</v>
       </c>
-      <c r="E13" s="11">
-        <f>+E9-E12</f>
+      <c r="E15" s="8">
+        <f t="shared" si="3"/>
         <v>4806</v>
       </c>
-      <c r="F13" s="11">
-        <f>+F9-F12</f>
+      <c r="F15" s="8">
+        <f t="shared" si="3"/>
         <v>4858</v>
       </c>
-      <c r="G13" s="11">
-        <f>+G9-G12</f>
+      <c r="G15" s="8">
+        <f t="shared" si="3"/>
         <v>5040</v>
       </c>
-      <c r="H13" s="11">
-        <f>+H9-H12</f>
+      <c r="H15" s="8">
+        <f t="shared" si="3"/>
         <v>4967</v>
       </c>
-      <c r="I13" s="11">
-        <f>+I9-I12</f>
+      <c r="I15" s="8">
+        <f t="shared" si="3"/>
         <v>5653</v>
       </c>
-      <c r="N13" s="8">
-        <f t="shared" ref="N13:O13" si="1">+N9-N12</f>
+      <c r="J15" s="8">
+        <f t="shared" si="3"/>
+        <v>6486</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="3"/>
+        <v>6814.7199999999993</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" ref="T15:U15" si="4">+T11-T14</f>
         <v>14694</v>
       </c>
-      <c r="O13" s="8">
-        <f t="shared" si="1"/>
+      <c r="U15" s="8">
+        <f t="shared" si="4"/>
         <v>19273</v>
       </c>
-      <c r="P13" s="8">
-        <f>+P9-P12</f>
+      <c r="V15" s="8">
+        <f>+V11-V14</f>
         <v>19702</v>
       </c>
-      <c r="Q13" s="8">
-        <f>+Q9-Q12</f>
+      <c r="W15" s="8">
+        <f>+W11-W14</f>
         <v>26220.5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="8">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="8">
         <f>-406+40</f>
         <v>-366</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D16" s="8">
         <f>-406-143</f>
         <v>-549</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E16" s="8">
         <f>-405+113</f>
         <v>-292</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F16" s="8">
         <f>-406+124</f>
         <v>-282</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G16" s="8">
         <f>-405+132</f>
         <v>-273</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H16" s="8">
         <f>-926+185</f>
         <v>-741</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I16" s="8">
         <f>-1047+87</f>
         <v>-960</v>
       </c>
-      <c r="N14" s="8">
+      <c r="J16" s="8">
+        <f>-1064+82</f>
+        <v>-982</v>
+      </c>
+      <c r="K16" s="8">
+        <f>+J16</f>
+        <v>-982</v>
+      </c>
+      <c r="T16" s="8">
         <f>-1885+131</f>
         <v>-1754</v>
       </c>
-      <c r="O14" s="8">
+      <c r="U16" s="8">
         <f>-1737-54</f>
         <v>-1791</v>
       </c>
-      <c r="P14" s="11">
-        <f>SUM(D14:G14)</f>
+      <c r="V16" s="8">
+        <f>SUM(D16:G16)</f>
         <v>-1396</v>
       </c>
-      <c r="Q14" s="11">
-        <f>+P14</f>
+      <c r="W16" s="8">
+        <f>+V16</f>
         <v>-1396</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" ref="C17:K17" si="5">+C15+C16</f>
+        <v>4699</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="5"/>
+        <v>4449</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="5"/>
+        <v>4514</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="5"/>
+        <v>4576</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="5"/>
+        <v>4767</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="5"/>
+        <v>4226</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="5"/>
+        <v>4693</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="5"/>
+        <v>5504</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="5"/>
+        <v>5832.7199999999993</v>
+      </c>
+      <c r="T17" s="8">
+        <f>+T15+T16</f>
+        <v>12940</v>
+      </c>
+      <c r="U17" s="8">
+        <f>+U15+U16</f>
+        <v>17482</v>
+      </c>
+      <c r="V17" s="8">
+        <f>+V15+V16</f>
+        <v>18306</v>
+      </c>
+      <c r="W17" s="8">
+        <f>+W15+W16</f>
+        <v>24824.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8">
-        <f>+C13+C14</f>
-        <v>4699</v>
-      </c>
-      <c r="D15" s="8">
-        <f>+D13+D14</f>
-        <v>4449</v>
-      </c>
-      <c r="E15" s="8">
-        <f>+E13+E14</f>
-        <v>4514</v>
-      </c>
-      <c r="F15" s="8">
-        <f>+F13+F14</f>
-        <v>4576</v>
-      </c>
-      <c r="G15" s="8">
-        <f>+G13+G14</f>
-        <v>4767</v>
-      </c>
-      <c r="H15" s="8">
-        <f>+H13+H14</f>
-        <v>4226</v>
-      </c>
-      <c r="I15" s="8">
-        <f>+I13+I14</f>
-        <v>4693</v>
-      </c>
-      <c r="N15" s="8">
-        <f>+N13+N14</f>
-        <v>12940</v>
-      </c>
-      <c r="O15" s="8">
-        <f>+O13+O14</f>
-        <v>17482</v>
-      </c>
-      <c r="P15" s="8">
-        <f>+P13+P14</f>
-        <v>18306</v>
-      </c>
-      <c r="Q15" s="8">
-        <f>+Q13+Q14</f>
-        <v>24824.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="C18" s="8">
         <v>261</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D18" s="8">
         <v>66</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E18" s="8">
         <v>235</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F18" s="8">
         <v>271</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G18" s="8">
         <v>443</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H18" s="8">
         <v>68</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I18" s="8">
         <v>-116</v>
       </c>
-      <c r="N16" s="8">
+      <c r="J18" s="8">
+        <v>4238</v>
+      </c>
+      <c r="K18" s="8">
+        <f>+K17*0.1</f>
+        <v>583.27199999999993</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8">
         <f>29+299</f>
         <v>328</v>
       </c>
-      <c r="O16" s="8">
+      <c r="U18" s="8">
         <f>939+272</f>
         <v>1211</v>
       </c>
-      <c r="P16" s="11">
-        <f>SUM(D16:G16)</f>
+      <c r="V18" s="8">
+        <f>SUM(D18:G18)</f>
         <v>1015</v>
       </c>
-      <c r="Q16" s="11">
-        <f>+Q15*0.1</f>
+      <c r="W18" s="8">
+        <f>+W17*0.1</f>
         <v>2482.4500000000003</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="11">
-        <f>+C15-C16</f>
+      <c r="X18" s="8"/>
+    </row>
+    <row r="19" spans="2:24" ht="13" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" ref="C19:K19" si="6">+C17-C18</f>
         <v>4438</v>
       </c>
-      <c r="D17" s="11">
-        <f>+D15-D16</f>
+      <c r="D19" s="8">
+        <f t="shared" si="6"/>
         <v>4383</v>
       </c>
-      <c r="E17" s="11">
-        <f>+E15-E16</f>
+      <c r="E19" s="8">
+        <f t="shared" si="6"/>
         <v>4279</v>
       </c>
-      <c r="F17" s="11">
-        <f>+F15-F16</f>
+      <c r="F19" s="8">
+        <f t="shared" si="6"/>
         <v>4305</v>
       </c>
-      <c r="G17" s="11">
-        <f>+G15-G16</f>
+      <c r="G19" s="8">
+        <f t="shared" si="6"/>
         <v>4324</v>
       </c>
-      <c r="H17" s="11">
-        <f>+H15-H16</f>
+      <c r="H19" s="8">
+        <f t="shared" si="6"/>
         <v>4158</v>
       </c>
-      <c r="I17" s="11">
-        <f>+I15-I16</f>
+      <c r="I19" s="8">
+        <f t="shared" si="6"/>
         <v>4809</v>
       </c>
-      <c r="N17" s="10">
-        <f>+N15-N16</f>
+      <c r="J19" s="8">
+        <f t="shared" si="6"/>
+        <v>1266</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="6"/>
+        <v>5249.4479999999994</v>
+      </c>
+      <c r="T19" s="10">
+        <f>+T17-T18</f>
         <v>12612</v>
       </c>
-      <c r="O17" s="10">
-        <f>+O15-O16</f>
+      <c r="U19" s="10">
+        <f>+U17-U18</f>
         <v>16271</v>
       </c>
-      <c r="P17" s="10">
-        <f>+P15-P16</f>
+      <c r="V19" s="10">
+        <f>+V17-V18</f>
         <v>17291</v>
       </c>
-      <c r="Q17" s="10">
-        <f>+Q15-Q16</f>
+      <c r="W19" s="10">
+        <f>+W17-W18</f>
         <v>22342.05</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="12">
-        <f>+C17/C19</f>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" ref="C20:K20" si="7">+C19/C21</f>
         <v>1.0344988344988344</v>
       </c>
-      <c r="D18" s="12">
-        <f>+D17/D19</f>
+      <c r="D20" s="11">
+        <f t="shared" si="7"/>
         <v>1.0216783216783216</v>
       </c>
-      <c r="E18" s="12">
-        <f>+E17/E19</f>
+      <c r="E20" s="11">
+        <f t="shared" si="7"/>
         <v>1.0021077283372366</v>
       </c>
-      <c r="F18" s="12">
-        <f>+F17/F19</f>
+      <c r="F20" s="11">
+        <f t="shared" si="7"/>
         <v>1.0081967213114753</v>
       </c>
-      <c r="G18" s="12">
-        <f>+G17/G19</f>
+      <c r="G20" s="11">
+        <f t="shared" si="7"/>
         <v>1.0126463700234192</v>
       </c>
-      <c r="H18" s="12">
-        <f>+H17/H19</f>
+      <c r="H20" s="11">
+        <f t="shared" si="7"/>
         <v>0.89036402569593143</v>
       </c>
-      <c r="I18" s="12">
-        <f>+I17/I19</f>
+      <c r="I20" s="11">
+        <f t="shared" si="7"/>
         <v>1.0018750000000001</v>
       </c>
-      <c r="N18" s="12">
-        <f>+N17/N19</f>
+      <c r="J20" s="11">
+        <f t="shared" si="7"/>
+        <v>0.27149903495603689</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="7"/>
+        <v>1.1257662449067123</v>
+      </c>
+      <c r="T20" s="11">
+        <f>+T19/T21</f>
         <v>2.9398601398601398</v>
       </c>
-      <c r="O18" s="12">
-        <f>+O17/O19</f>
+      <c r="U20" s="11">
+        <f>+U19/U21</f>
         <v>3.8465721040189127</v>
       </c>
-      <c r="P18" s="12">
-        <f>+P17/P19</f>
+      <c r="V20" s="11">
+        <f>+V19/V21</f>
         <v>3.9567505720823797</v>
       </c>
-      <c r="Q18" s="12">
-        <f>+Q17/Q19</f>
+      <c r="W20" s="11">
+        <f>+W19/W21</f>
         <v>4.6545937500000001</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C21" s="8">
         <v>4290</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D21" s="8">
         <v>4290</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E21" s="8">
         <v>4270</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F21" s="8">
         <v>4270</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G21" s="8">
         <v>4270</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H21" s="8">
         <v>4670</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I21" s="8">
         <f>480*10</f>
         <v>4800</v>
       </c>
-      <c r="N19" s="8">
+      <c r="J21" s="8">
+        <v>4663</v>
+      </c>
+      <c r="K21" s="8">
+        <f>+J21</f>
+        <v>4663</v>
+      </c>
+      <c r="T21" s="8">
         <v>4290</v>
       </c>
-      <c r="O19" s="8">
+      <c r="U21" s="8">
         <v>4230</v>
       </c>
-      <c r="P19" s="8">
-        <f>AVERAGE(E19:H19)</f>
+      <c r="V21" s="8">
+        <f>AVERAGE(E21:H21)</f>
         <v>4370</v>
       </c>
-      <c r="Q19" s="8">
-        <f>+I19</f>
+      <c r="W21" s="8">
+        <f>+I21</f>
         <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="16">
-        <f>+G7/C7-1</f>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="9">
+        <f>+G9/C9-1</f>
         <v>4.0873460246360516E-2</v>
       </c>
-      <c r="H23" s="16">
-        <f>+H7/D7-1</f>
+      <c r="H25" s="9">
+        <f>+H9/D9-1</f>
         <v>0.34167134043746494</v>
       </c>
-      <c r="I23" s="16">
-        <f>+I7/E7-1</f>
+      <c r="I25" s="9">
+        <f>+I9/E9-1</f>
         <v>0.42986373525707089</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="O23" s="9">
-        <f>+O7/N7-1</f>
+      <c r="J25" s="9">
+        <f>+J9/F9-1</f>
+        <v>0.47273546642631814</v>
+      </c>
+      <c r="K25" s="9">
+        <f>+K9/G9-1</f>
+        <v>0.51393222162452923</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="U25" s="9">
+        <f>+U9/T9-1</f>
         <v>0.20958105646630232</v>
       </c>
-      <c r="P23" s="9">
-        <f>+P7/O7-1</f>
+      <c r="V25" s="9">
+        <f>+V9/U9-1</f>
         <v>7.8788061319760239E-2</v>
       </c>
-      <c r="Q23" s="9">
-        <f>+Q7/P7-1</f>
+      <c r="W25" s="9">
+        <f>+W9/V9-1</f>
         <v>0.25631648008040431</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="9">
-        <f t="shared" ref="C24:H24" si="2">+C9/C7</f>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" ref="C26:G26" si="8">+C11/C9</f>
         <v>0.7426651735722285</v>
       </c>
-      <c r="D24" s="9">
-        <f t="shared" si="2"/>
+      <c r="D26" s="9">
+        <f t="shared" si="8"/>
         <v>0.7337072349971957</v>
       </c>
-      <c r="E24" s="9">
-        <f t="shared" si="2"/>
+      <c r="E26" s="9">
+        <f t="shared" si="8"/>
         <v>0.75071567617084622</v>
       </c>
-      <c r="F24" s="9">
-        <f t="shared" si="2"/>
+      <c r="F26" s="9">
+        <f t="shared" si="8"/>
         <v>0.74402884182063989</v>
       </c>
-      <c r="G24" s="9">
-        <f t="shared" si="2"/>
+      <c r="G26" s="9">
+        <f t="shared" si="8"/>
         <v>0.7365250134480904</v>
       </c>
-      <c r="H24" s="9">
-        <f>+H9/H7</f>
+      <c r="H26" s="9">
+        <f>+H11/H9</f>
         <v>0.73965387509405567</v>
       </c>
-      <c r="I24" s="9">
-        <f>+I9/I7</f>
+      <c r="I26" s="9">
+        <f>+I11/I9</f>
         <v>0.74837831344598382</v>
       </c>
-      <c r="N24" s="9">
-        <f>+N9/N7</f>
+      <c r="J26" s="9">
+        <f>+J11/J9</f>
+        <v>0.76032741738066101</v>
+      </c>
+      <c r="K26" s="9">
+        <f>+K11/K9</f>
+        <v>0.76</v>
+      </c>
+      <c r="T26" s="9">
+        <f>+T11/T9</f>
         <v>0.76120218579234977</v>
       </c>
-      <c r="O24" s="9">
-        <f>+O9/O7</f>
+      <c r="U26" s="9">
+        <f>+U11/U9</f>
         <v>0.77023160557780923</v>
       </c>
-      <c r="P24" s="9">
-        <f>+P9/P7</f>
+      <c r="V26" s="9">
+        <f>+V11/V9</f>
         <v>0.74114296881543318</v>
       </c>
-      <c r="Q24" s="9">
-        <f>+Q9/Q7</f>
+      <c r="W26" s="9">
+        <f>+W11/W9</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="16">
-        <f t="shared" ref="C25:H25" si="3">+C13/C7</f>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" ref="C27:G27" si="9">+C15/C9</f>
         <v>0.56718924972004481</v>
       </c>
-      <c r="D25" s="16">
-        <f t="shared" si="3"/>
+      <c r="D27" s="9">
+        <f t="shared" si="9"/>
         <v>0.56062815479528882</v>
       </c>
-      <c r="E25" s="16">
-        <f t="shared" si="3"/>
+      <c r="E27" s="9">
+        <f t="shared" si="9"/>
         <v>0.55032634833390592</v>
       </c>
-      <c r="F25" s="16">
-        <f t="shared" si="3"/>
+      <c r="F27" s="9">
+        <f t="shared" si="9"/>
         <v>0.54731861198738174</v>
       </c>
-      <c r="G25" s="16">
-        <f t="shared" si="3"/>
+      <c r="G27" s="9">
+        <f t="shared" si="9"/>
         <v>0.54222700376546529</v>
       </c>
-      <c r="H25" s="16">
-        <f>+H13/H7</f>
+      <c r="H27" s="9">
+        <f>+H15/H9</f>
         <v>0.41526628208343785</v>
       </c>
-      <c r="I25" s="16">
-        <f>+I13/I7</f>
+      <c r="I27" s="9">
+        <f>+I15/I9</f>
         <v>0.45271081925202211</v>
       </c>
-      <c r="N25" s="16">
-        <f>+N13/N7</f>
+      <c r="J27" s="9">
+        <f>+J15/J9</f>
+        <v>0.49617503059975521</v>
+      </c>
+      <c r="K27" s="9">
+        <f>+K15/K9</f>
+        <v>0.48427515633882884</v>
+      </c>
+      <c r="T27" s="9">
+        <f>+T15/T9</f>
         <v>0.53530054644808744</v>
       </c>
-      <c r="O25" s="16">
-        <f>+O13/O7</f>
+      <c r="U27" s="9">
+        <f>+U15/U9</f>
         <v>0.58045959702436523</v>
       </c>
-      <c r="P25" s="16">
-        <f>+P13/P7</f>
+      <c r="V27" s="9">
+        <f>+V15/V9</f>
         <v>0.55004327312320278</v>
       </c>
-      <c r="Q25" s="16">
-        <f>+Q13/Q7</f>
+      <c r="W27" s="9">
+        <f>+W15/W9</f>
         <v>0.58267777777777774</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="30" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="8">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8">
         <v>11864</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I30" s="8">
         <v>9809</v>
       </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+      <c r="J30" s="8">
+        <v>9952</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+    </row>
+    <row r="31" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8">
+        <v>4969</v>
+      </c>
+      <c r="I31" s="8">
+        <v>5500</v>
+      </c>
+      <c r="J31" s="8">
+        <v>4665</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+    </row>
+    <row r="32" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8">
+        <v>1920</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1842</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1894</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+    </row>
+    <row r="33" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="8">
-        <v>4969</v>
-      </c>
-      <c r="I29" s="8">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8">
+        <v>8439</v>
+      </c>
+      <c r="I33" s="8">
+        <v>8151</v>
+      </c>
+      <c r="J33" s="8">
+        <v>3436</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+    </row>
+    <row r="34" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="8">
-        <v>1920</v>
-      </c>
-      <c r="I30" s="8">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="8">
-        <v>8439</v>
-      </c>
-      <c r="I31" s="8">
-        <v>8151</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8">
+        <v>2662</v>
+      </c>
+      <c r="I34" s="8">
+        <v>2668</v>
+      </c>
+      <c r="J34" s="8">
+        <v>2602</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+    </row>
+    <row r="35" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="8">
-        <v>2662</v>
-      </c>
-      <c r="I32" s="8">
-        <v>2668</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="8">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8">
         <f>97586+47185</f>
         <v>144771</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I35" s="8">
         <f>97873+45407</f>
         <v>143280</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+      <c r="J35" s="8">
+        <f>97873+43034</f>
+        <v>140907</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+    </row>
+    <row r="36" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8">
+        <v>3245</v>
+      </c>
+      <c r="I36" s="8">
+        <v>3961</v>
+      </c>
+      <c r="J36" s="8">
+        <v>4510</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+    </row>
+    <row r="37" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="8">
-        <v>3245</v>
-      </c>
-      <c r="I34" s="8">
-        <v>3961</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8">
+        <f>SUM(H30:H36)</f>
+        <v>177870</v>
+      </c>
+      <c r="I37" s="8">
+        <f>SUM(I30:I36)</f>
+        <v>175211</v>
+      </c>
+      <c r="J37" s="8">
+        <f>SUM(J30:J36)</f>
+        <v>167966</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+    </row>
+    <row r="38" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+    </row>
+    <row r="39" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8">
+        <v>1496</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1441</v>
+      </c>
+      <c r="J39" s="8">
+        <v>1757</v>
+      </c>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+    </row>
+    <row r="40" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="11">
-        <f>SUM(H28:H34)</f>
-        <v>177870</v>
-      </c>
-      <c r="I35" s="11">
-        <f>SUM(I28:I34)</f>
-        <v>175211</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="8">
-        <v>1496</v>
-      </c>
-      <c r="I37" s="8">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" s="8">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8">
         <v>1128</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I40" s="8">
         <v>1385</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+      <c r="J40" s="8">
+        <v>1725</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+    </row>
+    <row r="41" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="8">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8">
         <f>2433+73468</f>
         <v>75901</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I41" s="8">
         <f>2426+71590</f>
         <v>74016</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="J41" s="8">
+        <f>12578+66798</f>
+        <v>79376</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+    </row>
+    <row r="42" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8">
+        <v>15312</v>
+      </c>
+      <c r="I42" s="8">
+        <v>14919</v>
+      </c>
+      <c r="J42" s="8">
+        <v>3161</v>
+      </c>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+    </row>
+    <row r="43" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8">
+        <v>13749</v>
+      </c>
+      <c r="I43" s="8">
+        <v>13489</v>
+      </c>
+      <c r="J43" s="8">
+        <v>16296</v>
+      </c>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+    </row>
+    <row r="44" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H40" s="8">
-        <v>15312</v>
-      </c>
-      <c r="I40" s="8">
-        <v>14919</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8">
+        <v>70284</v>
+      </c>
+      <c r="I44" s="8">
+        <v>69961</v>
+      </c>
+      <c r="J44" s="8">
+        <v>65651</v>
+      </c>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+    </row>
+    <row r="45" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="8">
-        <v>13749</v>
-      </c>
-      <c r="I41" s="8">
-        <v>13489</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8">
+        <f>SUM(H39:H44)</f>
+        <v>177870</v>
+      </c>
+      <c r="I45" s="8">
+        <f>SUM(I39:I44)</f>
+        <v>175211</v>
+      </c>
+      <c r="J45" s="8">
+        <f>SUM(J39:J44)</f>
+        <v>167966</v>
+      </c>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>39</v>
       </c>
-      <c r="H42" s="8">
-        <v>70284</v>
-      </c>
-      <c r="I42" s="8">
-        <v>69961</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+      <c r="H47" s="8">
+        <f>+H19</f>
+        <v>4158</v>
+      </c>
+      <c r="I47" s="8">
+        <f>+I19</f>
+        <v>4809</v>
+      </c>
+      <c r="J47" s="8">
+        <f>+J19</f>
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="8">
-        <f>SUM(H37:H42)</f>
-        <v>177870</v>
-      </c>
-      <c r="I43" s="8">
-        <f>SUM(I37:I42)</f>
-        <v>175211</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+      <c r="H48" s="15">
+        <v>1325</v>
+      </c>
+      <c r="I48" s="15">
+        <v>2121</v>
+      </c>
+      <c r="J48" s="8">
+        <f>1571-I48-H48</f>
+        <v>-1875</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>41</v>
       </c>
-      <c r="H45" s="8">
-        <f>+H17</f>
-        <v>4158</v>
-      </c>
-      <c r="I45" s="8">
-        <f>+I17</f>
-        <v>4809</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+      <c r="H49" s="8">
+        <v>2206</v>
+      </c>
+      <c r="I49" s="8">
+        <v>2381</v>
+      </c>
+      <c r="J49" s="8">
+        <f>6962-I49-H49</f>
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" s="8">
+        <v>139</v>
+      </c>
+      <c r="I50" s="8">
+        <v>149</v>
+      </c>
+      <c r="J50" s="8">
+        <f>437-I50-H50</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="10">
-        <v>1325</v>
-      </c>
-      <c r="I46" s="10">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" s="8">
-        <v>2206</v>
-      </c>
-      <c r="I47" s="8">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" s="8">
-        <v>139</v>
-      </c>
-      <c r="I48" s="8">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B49" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="11">
+      <c r="H51" s="8">
         <v>1582</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I51" s="8">
         <v>1457</v>
       </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B50" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="H50" s="8">
+      <c r="J51" s="8">
+        <f>4427-I51-H51</f>
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="8">
         <v>-294</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I52" s="8">
         <v>-511</v>
       </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="H51" s="8">
-        <v>102</v>
-      </c>
-      <c r="I51" s="8">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="H52" s="8">
-        <v>38</v>
-      </c>
-      <c r="I52" s="8">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J52" s="8">
+        <f>2833-I52-H52</f>
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>47</v>
       </c>
       <c r="H53" s="8">
+        <v>102</v>
+      </c>
+      <c r="I53" s="8">
+        <v>119</v>
+      </c>
+      <c r="J53" s="8">
+        <f>336-I53-H53</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" s="8">
+        <v>38</v>
+      </c>
+      <c r="I54" s="8">
+        <v>92</v>
+      </c>
+      <c r="J54" s="8">
+        <f>266+105-I54-H54</f>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" s="8">
         <f>1756-14-74-660-2182+891</f>
         <v>-283</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I55" s="8">
         <f>-513+82-93+251-386-569</f>
         <v>-1228</v>
       </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" s="10">
-        <f>SUM(H46:H53)</f>
+      <c r="J55" s="8">
+        <f>2078+16+206-118-3913-848-I55-H55</f>
+        <v>-1068</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="10">
+        <f>SUM(H48:H55)</f>
         <v>4815</v>
       </c>
-      <c r="I54" s="10">
-        <f>SUM(I46:I53)</f>
+      <c r="I56" s="10">
+        <f>SUM(I48:I55)</f>
         <v>4580</v>
       </c>
-      <c r="N54" s="10">
+      <c r="J56" s="10">
+        <f>SUM(J48:J55)</f>
+        <v>4963</v>
+      </c>
+      <c r="T56" s="10">
         <v>13764</v>
       </c>
-      <c r="O54" s="10">
+      <c r="U56" s="10">
         <v>16736</v>
       </c>
-      <c r="P54" s="10">
+      <c r="V56" s="10">
         <v>18085</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-      <c r="G68" s="3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" s="3">
         <v>20000</v>
       </c>
     </row>

--- a/AVGO.xlsx
+++ b/AVGO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D78B31C-CAEF-4A8A-B560-382CA715EE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A71D4FF-2404-40D7-940E-718802EC9CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="3670" windowWidth="18690" windowHeight="15380" activeTab="1" xr2:uid="{70329CC5-8756-4BA4-A5C1-E709DAADAB52}"/>
+    <workbookView xWindow="16920" yWindow="2060" windowWidth="20920" windowHeight="16150" xr2:uid="{70329CC5-8756-4BA4-A5C1-E709DAADAB52}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -353,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -381,11 +381,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -412,16 +409,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>32525</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>40462</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>13260</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>32525</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>40462</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>138712</xdr:rowOff>
+      <xdr:rowOff>125452</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -436,8 +433,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6287275" y="13260"/>
-          <a:ext cx="0" cy="10634702"/>
+          <a:off x="7454087" y="0"/>
+          <a:ext cx="0" cy="10944265"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -832,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9849E712-1B47-42A3-A902-777D3000824F}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -843,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>176.75</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -869,7 +866,7 @@
       </c>
       <c r="J4" s="5">
         <f>+J2*J3</f>
-        <v>825524.32267024997</v>
+        <v>906091.76010199997</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -909,7 +906,7 @@
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>887128.32267024997</v>
+        <v>967695.76010199997</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -972,11 +969,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470E0775-30FD-4D74-BE40-C6F63DB74CF0}">
   <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1265,10 +1262,11 @@
         <v>13072</v>
       </c>
       <c r="K9" s="10">
-        <f>+K7+K8</f>
-        <v>14072</v>
-      </c>
-      <c r="L9" s="12"/>
+        <v>14054</v>
+      </c>
+      <c r="L9" s="10">
+        <v>14916</v>
+      </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -1323,8 +1321,10 @@
         <v>3133</v>
       </c>
       <c r="K10" s="8">
-        <f>+K9-K11</f>
-        <v>3377.2800000000007</v>
+        <v>3399</v>
+      </c>
+      <c r="L10" s="8">
+        <v>3273</v>
       </c>
       <c r="T10" s="8">
         <v>6555</v>
@@ -1378,10 +1378,13 @@
         <v>9939</v>
       </c>
       <c r="K11" s="8">
-        <f>+K9*0.76</f>
-        <v>10694.72</v>
-      </c>
-      <c r="L11" s="8"/>
+        <f>+K9-K10</f>
+        <v>10655</v>
+      </c>
+      <c r="L11" s="8">
+        <f>+L9-L10</f>
+        <v>11643</v>
+      </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -1436,8 +1439,10 @@
         <v>2353</v>
       </c>
       <c r="K12" s="8">
-        <f>+H12</f>
-        <v>2308</v>
+        <v>2234</v>
+      </c>
+      <c r="L12" s="8">
+        <v>2253</v>
       </c>
       <c r="T12" s="8">
         <v>4854</v>
@@ -1483,8 +1488,10 @@
         <v>1100</v>
       </c>
       <c r="K13" s="8">
-        <f>+H13</f>
-        <v>1572</v>
+        <v>1010</v>
+      </c>
+      <c r="L13" s="8">
+        <v>949</v>
       </c>
       <c r="T13" s="8">
         <v>1347</v>
@@ -1506,7 +1513,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" ref="C14:K14" si="1">+C12+C13</f>
+        <f t="shared" ref="C14:L14" si="1">+C12+C13</f>
         <v>1567</v>
       </c>
       <c r="D14" s="8">
@@ -1539,7 +1546,11 @@
       </c>
       <c r="K14" s="8">
         <f t="shared" si="1"/>
-        <v>3880</v>
+        <v>3244</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="1"/>
+        <v>3202</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" ref="T14:U14" si="2">+T13+T12</f>
@@ -1563,7 +1574,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" ref="C15:K15" si="3">+C11-C14</f>
+        <f t="shared" ref="C15:L15" si="3">+C11-C14</f>
         <v>5065</v>
       </c>
       <c r="D15" s="8">
@@ -1596,7 +1607,11 @@
       </c>
       <c r="K15" s="8">
         <f t="shared" si="3"/>
-        <v>6814.7199999999993</v>
+        <v>7411</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="3"/>
+        <v>8441</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" ref="T15:U15" si="4">+T11-T14</f>
@@ -1652,8 +1667,12 @@
         <v>-982</v>
       </c>
       <c r="K16" s="8">
-        <f>+J16</f>
-        <v>-982</v>
+        <f>-916+52</f>
+        <v>-864</v>
+      </c>
+      <c r="L16" s="3">
+        <f>-873+103</f>
+        <v>-770</v>
       </c>
       <c r="T16" s="8">
         <f>-1885+131</f>
@@ -1677,7 +1696,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" ref="C17:K17" si="5">+C15+C16</f>
+        <f t="shared" ref="C17:L17" si="5">+C15+C16</f>
         <v>4699</v>
       </c>
       <c r="D17" s="8">
@@ -1710,7 +1729,11 @@
       </c>
       <c r="K17" s="8">
         <f t="shared" si="5"/>
-        <v>5832.7199999999993</v>
+        <v>6547</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="5"/>
+        <v>7671</v>
       </c>
       <c r="T17" s="8">
         <f>+T15+T16</f>
@@ -1749,7 +1772,8 @@
         <v>443</v>
       </c>
       <c r="H18" s="8">
-        <v>68</v>
+        <f>68+735</f>
+        <v>803</v>
       </c>
       <c r="I18" s="8">
         <v>-116</v>
@@ -1758,10 +1782,13 @@
         <v>4238</v>
       </c>
       <c r="K18" s="8">
-        <f>+K17*0.1</f>
-        <v>583.27199999999993</v>
-      </c>
-      <c r="L18" s="8"/>
+        <f>-442+1506</f>
+        <v>1064</v>
+      </c>
+      <c r="L18" s="8">
+        <f>-12+1286</f>
+        <v>1274</v>
+      </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
@@ -1792,7 +1819,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" ref="C19:K19" si="6">+C17-C18</f>
+        <f t="shared" ref="C19:L19" si="6">+C17-C18</f>
         <v>4438</v>
       </c>
       <c r="D19" s="8">
@@ -1813,7 +1840,7 @@
       </c>
       <c r="H19" s="8">
         <f t="shared" si="6"/>
-        <v>4158</v>
+        <v>3423</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="6"/>
@@ -1825,7 +1852,11 @@
       </c>
       <c r="K19" s="8">
         <f t="shared" si="6"/>
-        <v>5249.4479999999994</v>
+        <v>5483</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="6"/>
+        <v>6397</v>
       </c>
       <c r="T19" s="10">
         <f>+T17-T18</f>
@@ -1849,7 +1880,7 @@
         <v>75</v>
       </c>
       <c r="C20" s="11">
-        <f t="shared" ref="C20:K20" si="7">+C19/C21</f>
+        <f t="shared" ref="C20:L20" si="7">+C19/C21</f>
         <v>1.0344988344988344</v>
       </c>
       <c r="D20" s="11">
@@ -1870,7 +1901,7 @@
       </c>
       <c r="H20" s="11">
         <f t="shared" si="7"/>
-        <v>0.89036402569593143</v>
+        <v>0.73297644539614559</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="7"/>
@@ -1882,7 +1913,11 @@
       </c>
       <c r="K20" s="11">
         <f t="shared" si="7"/>
-        <v>1.1257662449067123</v>
+        <v>1.1356669428334714</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="7"/>
+        <v>1.3227874276261373</v>
       </c>
       <c r="T20" s="11">
         <f>+T19/T21</f>
@@ -1931,8 +1966,10 @@
         <v>4663</v>
       </c>
       <c r="K21" s="8">
-        <f>+J21</f>
-        <v>4663</v>
+        <v>4828</v>
+      </c>
+      <c r="L21" s="8">
+        <v>4836</v>
       </c>
       <c r="T21" s="8">
         <v>4290</v>
@@ -1971,9 +2008,12 @@
       </c>
       <c r="K25" s="9">
         <f>+K9/G9-1</f>
-        <v>0.51393222162452923</v>
-      </c>
-      <c r="L25" s="9"/>
+        <v>0.51199569661108124</v>
+      </c>
+      <c r="L25" s="9">
+        <f>+L9/H9-1</f>
+        <v>0.24705292199648854</v>
+      </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -2031,7 +2071,11 @@
       </c>
       <c r="K26" s="9">
         <f>+K11/K9</f>
-        <v>0.76</v>
+        <v>0.75814714671979511</v>
+      </c>
+      <c r="L26" s="9">
+        <f>+L11/L9</f>
+        <v>0.78057119871279168</v>
       </c>
       <c r="T26" s="9">
         <f>+T11/T9</f>
@@ -2088,7 +2132,11 @@
       </c>
       <c r="K27" s="9">
         <f>+K15/K9</f>
-        <v>0.48427515633882884</v>
+        <v>0.52732318201223849</v>
+      </c>
+      <c r="L27" s="9">
+        <f>+L15/L9</f>
+        <v>0.56590238669884685</v>
       </c>
       <c r="T27" s="9">
         <f>+T15/T9</f>
@@ -2644,7 +2692,7 @@
       </c>
       <c r="H47" s="8">
         <f>+H19</f>
-        <v>4158</v>
+        <v>3423</v>
       </c>
       <c r="I47" s="8">
         <f>+I19</f>
@@ -2659,10 +2707,10 @@
       <c r="B48" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="8">
         <v>1325</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="8">
         <v>2121</v>
       </c>
       <c r="J48" s="8">

--- a/AVGO.xlsx
+++ b/AVGO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A71D4FF-2404-40D7-940E-718802EC9CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BD652F-2DE8-44BF-A5B3-44D5C53616D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="2060" windowWidth="20920" windowHeight="16150" xr2:uid="{70329CC5-8756-4BA4-A5C1-E709DAADAB52}"/>
+    <workbookView xWindow="-28995" yWindow="1755" windowWidth="25965" windowHeight="16125" xr2:uid="{70329CC5-8756-4BA4-A5C1-E709DAADAB52}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
   <si>
     <t>Price</t>
   </si>
@@ -270,9 +270,6 @@
     <t>WT Microelectronics - 21% of revenue FY2023</t>
   </si>
   <si>
-    <t>Q224</t>
-  </si>
-  <si>
     <t>FQ324</t>
   </si>
   <si>
@@ -301,6 +298,12 @@
   </si>
   <si>
     <t>FY2019</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>40462</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>125452</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -467,7 +470,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>32523</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>125452</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -840,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>194</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -851,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>4670.5760829999999</v>
+        <v>4836</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="13" x14ac:dyDescent="0.3">
@@ -866,7 +869,7 @@
       </c>
       <c r="J4" s="5">
         <f>+J2*J3</f>
-        <v>906091.76010199997</v>
+        <v>1141296</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -877,10 +880,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="2">
-        <v>11864</v>
+        <v>9307</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -891,10 +894,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="2">
-        <v>73468</v>
+        <v>66579</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -906,7 +909,7 @@
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>967695.76010199997</v>
+        <v>1198568</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -967,13 +970,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470E0775-30FD-4D74-BE40-C6F63DB74CF0}">
-  <dimension ref="A1:X70"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1016,28 +1019,28 @@
         <v>8</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="R2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>68</v>
@@ -1130,7 +1133,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1153,7 +1156,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1991,27 +1994,27 @@
         <v>12</v>
       </c>
       <c r="G25" s="9">
-        <f>+G9/C9-1</f>
+        <f t="shared" ref="G25:L25" si="8">+G9/C9-1</f>
         <v>4.0873460246360516E-2</v>
       </c>
       <c r="H25" s="9">
-        <f>+H9/D9-1</f>
+        <f t="shared" si="8"/>
         <v>0.34167134043746494</v>
       </c>
       <c r="I25" s="9">
-        <f>+I9/E9-1</f>
+        <f t="shared" si="8"/>
         <v>0.42986373525707089</v>
       </c>
       <c r="J25" s="9">
-        <f>+J9/F9-1</f>
+        <f t="shared" si="8"/>
         <v>0.47273546642631814</v>
       </c>
       <c r="K25" s="9">
-        <f>+K9/G9-1</f>
+        <f t="shared" si="8"/>
         <v>0.51199569661108124</v>
       </c>
       <c r="L25" s="9">
-        <f>+L9/H9-1</f>
+        <f t="shared" si="8"/>
         <v>0.24705292199648854</v>
       </c>
       <c r="M25" s="9"/>
@@ -2038,23 +2041,23 @@
         <v>15</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" ref="C26:G26" si="8">+C11/C9</f>
+        <f t="shared" ref="C26:G26" si="9">+C11/C9</f>
         <v>0.7426651735722285</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.7337072349971957</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.75071567617084622</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.74402884182063989</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.7365250134480904</v>
       </c>
       <c r="H26" s="9">
@@ -2099,23 +2102,23 @@
         <v>21</v>
       </c>
       <c r="C27" s="9">
-        <f t="shared" ref="C27:G27" si="9">+C15/C9</f>
+        <f t="shared" ref="C27:G27" si="10">+C15/C9</f>
         <v>0.56718924972004481</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.56062815479528882</v>
       </c>
       <c r="E27" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.55032634833390592</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.54731861198738174</v>
       </c>
       <c r="G27" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.54222700376546529</v>
       </c>
       <c r="H27" s="9">
@@ -2155,42 +2158,18 @@
         <v>0.58267777777777774</v>
       </c>
     </row>
-    <row r="30" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8">
-        <v>11864</v>
-      </c>
-      <c r="I30" s="8">
-        <v>9809</v>
-      </c>
-      <c r="J30" s="8">
-        <v>9952</v>
-      </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="8">
+        <f>+L31-L42</f>
+        <v>-57272</v>
+      </c>
     </row>
     <row r="31" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2198,16 +2177,18 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8">
-        <v>4969</v>
+        <v>11864</v>
       </c>
       <c r="I31" s="8">
-        <v>5500</v>
+        <v>9809</v>
       </c>
       <c r="J31" s="8">
-        <v>4665</v>
+        <v>9952</v>
       </c>
       <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="L31" s="8">
+        <v>9307</v>
+      </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -2223,7 +2204,7 @@
     </row>
     <row r="32" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2231,16 +2212,18 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8">
-        <v>1920</v>
+        <v>4969</v>
       </c>
       <c r="I32" s="8">
-        <v>1842</v>
+        <v>5500</v>
       </c>
       <c r="J32" s="8">
-        <v>1894</v>
+        <v>4665</v>
       </c>
       <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="L32" s="8">
+        <v>4955</v>
+      </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -2256,7 +2239,7 @@
     </row>
     <row r="33" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2264,16 +2247,18 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8">
-        <v>8439</v>
+        <v>1920</v>
       </c>
       <c r="I33" s="8">
-        <v>8151</v>
+        <v>1842</v>
       </c>
       <c r="J33" s="8">
-        <v>3436</v>
+        <v>1894</v>
       </c>
       <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="L33" s="8">
+        <v>1908</v>
+      </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -2289,7 +2274,7 @@
     </row>
     <row r="34" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2297,16 +2282,18 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8">
-        <v>2662</v>
+        <v>8439</v>
       </c>
       <c r="I34" s="8">
-        <v>2668</v>
+        <v>8151</v>
       </c>
       <c r="J34" s="8">
-        <v>2602</v>
+        <v>3436</v>
       </c>
       <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="L34" s="8">
+        <v>4820</v>
+      </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
@@ -2322,7 +2309,7 @@
     </row>
     <row r="35" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -2330,19 +2317,18 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8">
-        <f>97586+47185</f>
-        <v>144771</v>
+        <v>2662</v>
       </c>
       <c r="I35" s="8">
-        <f>97873+45407</f>
-        <v>143280</v>
+        <v>2668</v>
       </c>
       <c r="J35" s="8">
-        <f>97873+43034</f>
-        <v>140907</v>
+        <v>2602</v>
       </c>
       <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="L35" s="8">
+        <v>2465</v>
+      </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -2358,7 +2344,7 @@
     </row>
     <row r="36" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2366,16 +2352,22 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8">
-        <v>3245</v>
+        <f>97586+47185</f>
+        <v>144771</v>
       </c>
       <c r="I36" s="8">
-        <v>3961</v>
+        <f>97873+45407</f>
+        <v>143280</v>
       </c>
       <c r="J36" s="8">
-        <v>4510</v>
+        <f>97873+43034</f>
+        <v>140907</v>
       </c>
       <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="L36" s="8">
+        <f>97871+38583</f>
+        <v>136454</v>
+      </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -2391,7 +2383,7 @@
     </row>
     <row r="37" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2399,19 +2391,18 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8">
-        <f>SUM(H30:H36)</f>
-        <v>177870</v>
+        <v>3245</v>
       </c>
       <c r="I37" s="8">
-        <f>SUM(I30:I36)</f>
-        <v>175211</v>
+        <v>3961</v>
       </c>
       <c r="J37" s="8">
-        <f>SUM(J30:J36)</f>
-        <v>167966</v>
+        <v>4510</v>
       </c>
       <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
+      <c r="L37" s="8">
+        <v>5449</v>
+      </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -2426,16 +2417,34 @@
       <c r="X37" s="8"/>
     </row>
     <row r="38" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
+      <c r="H38" s="8">
+        <f>SUM(H31:H37)</f>
+        <v>177870</v>
+      </c>
+      <c r="I38" s="8">
+        <f>SUM(I31:I37)</f>
+        <v>175211</v>
+      </c>
+      <c r="J38" s="8">
+        <f>SUM(J31:J37)</f>
+        <v>167966</v>
+      </c>
+      <c r="K38" s="8">
+        <f>SUM(K31:K37)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="8">
+        <f>SUM(L31:L37)</f>
+        <v>165358</v>
+      </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -2450,23 +2459,14 @@
       <c r="X38" s="8"/>
     </row>
     <row r="39" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="8">
-        <v>1496</v>
-      </c>
-      <c r="I39" s="8">
-        <v>1441</v>
-      </c>
-      <c r="J39" s="8">
-        <v>1757</v>
-      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="40" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2492,16 +2492,18 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8">
-        <v>1128</v>
+        <v>1496</v>
       </c>
       <c r="I40" s="8">
-        <v>1385</v>
+        <v>1441</v>
       </c>
       <c r="J40" s="8">
-        <v>1725</v>
+        <v>1757</v>
       </c>
       <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
+      <c r="L40" s="8">
+        <v>1905</v>
+      </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
@@ -2517,7 +2519,7 @@
     </row>
     <row r="41" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -2525,19 +2527,18 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8">
-        <f>2433+73468</f>
-        <v>75901</v>
+        <v>1128</v>
       </c>
       <c r="I41" s="8">
-        <f>2426+71590</f>
-        <v>74016</v>
+        <v>1385</v>
       </c>
       <c r="J41" s="8">
-        <f>12578+66798</f>
-        <v>79376</v>
+        <v>1725</v>
       </c>
       <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
+      <c r="L41" s="8">
+        <v>922</v>
+      </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -2553,7 +2554,7 @@
     </row>
     <row r="42" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -2561,16 +2562,22 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8">
-        <v>15312</v>
+        <f>2433+73468</f>
+        <v>75901</v>
       </c>
       <c r="I42" s="8">
-        <v>14919</v>
+        <f>2426+71590</f>
+        <v>74016</v>
       </c>
       <c r="J42" s="8">
-        <v>3161</v>
+        <f>12578+66798</f>
+        <v>79376</v>
       </c>
       <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
+      <c r="L42" s="8">
+        <f>5653+60926</f>
+        <v>66579</v>
+      </c>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
@@ -2586,7 +2593,7 @@
     </row>
     <row r="43" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2594,16 +2601,18 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8">
-        <v>13749</v>
+        <v>15312</v>
       </c>
       <c r="I43" s="8">
-        <v>13489</v>
+        <v>14919</v>
       </c>
       <c r="J43" s="8">
-        <v>16296</v>
+        <v>3161</v>
       </c>
       <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
+      <c r="L43" s="8">
+        <v>12430</v>
+      </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -2619,7 +2628,7 @@
     </row>
     <row r="44" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2627,16 +2636,18 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8">
-        <v>70284</v>
+        <v>13749</v>
       </c>
       <c r="I44" s="8">
-        <v>69961</v>
+        <v>13489</v>
       </c>
       <c r="J44" s="8">
-        <v>65651</v>
+        <v>16296</v>
       </c>
       <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
+      <c r="L44" s="8">
+        <v>13733</v>
+      </c>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
@@ -2652,7 +2663,7 @@
     </row>
     <row r="45" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -2660,19 +2671,18 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8">
-        <f>SUM(H39:H44)</f>
-        <v>177870</v>
+        <v>70284</v>
       </c>
       <c r="I45" s="8">
-        <f>SUM(I39:I44)</f>
-        <v>175211</v>
+        <v>69961</v>
       </c>
       <c r="J45" s="8">
-        <f>SUM(J39:J44)</f>
-        <v>167966</v>
+        <v>65651</v>
       </c>
       <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
+      <c r="L45" s="8">
+        <v>69789</v>
+      </c>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
@@ -2686,176 +2696,218 @@
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="46" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8">
+        <f>SUM(H40:H45)</f>
+        <v>177870</v>
+      </c>
+      <c r="I46" s="8">
+        <f>SUM(I40:I45)</f>
+        <v>175211</v>
+      </c>
+      <c r="J46" s="8">
+        <f>SUM(J40:J45)</f>
+        <v>167966</v>
+      </c>
+      <c r="K46" s="8">
+        <f>SUM(K40:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
+        <f>SUM(L40:L45)</f>
+        <v>165358</v>
+      </c>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>39</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H48" s="8">
         <f>+H19</f>
         <v>3423</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I48" s="8">
         <f>+I19</f>
         <v>4809</v>
       </c>
-      <c r="J47" s="8">
+      <c r="J48" s="8">
         <f>+J19</f>
         <v>1266</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48" s="8">
-        <v>1325</v>
-      </c>
-      <c r="I48" s="8">
-        <v>2121</v>
-      </c>
-      <c r="J48" s="8">
-        <f>1571-I48-H48</f>
-        <v>-1875</v>
-      </c>
-    </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H49" s="8">
-        <v>2206</v>
+        <v>1325</v>
       </c>
       <c r="I49" s="8">
-        <v>2381</v>
+        <v>2121</v>
       </c>
       <c r="J49" s="8">
-        <f>6962-I49-H49</f>
-        <v>2375</v>
+        <f>1571-I49-H49</f>
+        <v>-1875</v>
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H50" s="8">
-        <v>139</v>
+        <v>2206</v>
       </c>
       <c r="I50" s="8">
-        <v>149</v>
+        <v>2381</v>
       </c>
       <c r="J50" s="8">
-        <f>437-I50-H50</f>
-        <v>149</v>
+        <f>6962-I50-H50</f>
+        <v>2375</v>
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H51" s="8">
-        <v>1582</v>
+        <v>139</v>
       </c>
       <c r="I51" s="8">
-        <v>1457</v>
+        <v>149</v>
       </c>
       <c r="J51" s="8">
-        <f>4427-I51-H51</f>
-        <v>1388</v>
+        <f>437-I51-H51</f>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H52" s="8">
-        <v>-294</v>
+        <v>1582</v>
       </c>
       <c r="I52" s="8">
-        <v>-511</v>
+        <v>1457</v>
       </c>
       <c r="J52" s="8">
-        <f>2833-I52-H52</f>
-        <v>3638</v>
+        <f>4427-I52-H52</f>
+        <v>1388</v>
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" s="8">
-        <v>102</v>
+        <v>-294</v>
       </c>
       <c r="I53" s="8">
-        <v>119</v>
+        <v>-511</v>
       </c>
       <c r="J53" s="8">
-        <f>336-I53-H53</f>
-        <v>115</v>
+        <f>2833-I53-H53</f>
+        <v>3638</v>
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H54" s="8">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="I54" s="8">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="J54" s="8">
-        <f>266+105-I54-H54</f>
-        <v>241</v>
+        <f>336-I54-H54</f>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="H55" s="8">
+        <v>38</v>
+      </c>
+      <c r="I55" s="8">
+        <v>92</v>
+      </c>
+      <c r="J55" s="8">
+        <f>266+105-I55-H55</f>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>45</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H56" s="8">
         <f>1756-14-74-660-2182+891</f>
         <v>-283</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I56" s="8">
         <f>-513+82-93+251-386-569</f>
         <v>-1228</v>
       </c>
-      <c r="J55" s="8">
-        <f>2078+16+206-118-3913-848-I55-H55</f>
+      <c r="J56" s="8">
+        <f>2078+16+206-118-3913-848-I56-H56</f>
         <v>-1068</v>
       </c>
     </row>
-    <row r="56" spans="2:22" ht="13" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+    <row r="57" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>44</v>
       </c>
-      <c r="H56" s="10">
-        <f>SUM(H48:H55)</f>
+      <c r="H57" s="10">
+        <f>SUM(H49:H56)</f>
         <v>4815</v>
       </c>
-      <c r="I56" s="10">
-        <f>SUM(I48:I55)</f>
+      <c r="I57" s="10">
+        <f>SUM(I49:I56)</f>
         <v>4580</v>
       </c>
-      <c r="J56" s="10">
-        <f>SUM(J48:J55)</f>
+      <c r="J57" s="10">
+        <f>SUM(J49:J56)</f>
         <v>4963</v>
       </c>
-      <c r="T56" s="10">
+      <c r="T57" s="10">
         <v>13764</v>
       </c>
-      <c r="U56" s="10">
+      <c r="U57" s="10">
         <v>16736</v>
       </c>
-      <c r="V56" s="10">
+      <c r="V57" s="10">
         <v>18085</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>65</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G71" s="3">
         <v>20000</v>
       </c>
     </row>
